--- a/biology/Zoologie/Dormaalocyon/Dormaalocyon.xlsx
+++ b/biology/Zoologie/Dormaalocyon/Dormaalocyon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dormaalocyon latouri
-Dormaalocyon est un genre éteint de mammifères carnivores qui vivait il y a environ 56 millions d'années au tout début de l'Éocène. Une seule espèce est rattachée au genre, Dormaalocyon latouri. C'est l'un des plus anciennes espèces de mammifères carnivores connue qui puisse être reliée aux mammifères carnivores actuels[3],[1],[4].
+Dormaalocyon est un genre éteint de mammifères carnivores qui vivait il y a environ 56 millions d'années au tout début de l'Éocène. Une seule espèce est rattachée au genre, Dormaalocyon latouri. C'est l'un des plus anciennes espèces de mammifères carnivores connue qui puisse être reliée aux mammifères carnivores actuels.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après la découverte de deux dents décrites en 1966 sous le nom de « Miacis » latouri[2], 250 fossiles ont été mis au jour sur le même site dans le village de Dormaal, près de Léau, dans la province du Brabant flamand, en Belgique[4]. Ces fossiles ont conduit à la création d'un nouveau genre : Dormaalocyon (en hommage au village de Dormaal) publié en janvier 2014 dans le Journal of Vertebrate Paleontology[4],[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après la découverte de deux dents décrites en 1966 sous le nom de « Miacis » latouri, 250 fossiles ont été mis au jour sur le même site dans le village de Dormaal, près de Léau, dans la province du Brabant flamand, en Belgique. Ces fossiles ont conduit à la création d'un nouveau genre : Dormaalocyon (en hommage au village de Dormaal) publié en janvier 2014 dans le Journal of Vertebrate Paleontology,.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
